--- a/USING VBScript/new_bot/_UiZbG1b3qQMYU/data.xlsx
+++ b/USING VBScript/new_bot/_UiZbG1b3qQMYU/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\x\Documents\GitHub\EXCEL_AUTOMATION\USING VBScript\new_bot\_UiZbG1b3qQMYU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC966571-2B57-4DA3-9195-7CC81598BE45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70682FE-2A37-4513-B42C-FB0A2F3E03DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="18000" windowHeight="12375" xr2:uid="{0D0A106E-376F-4D6C-8911-BE6476D008E8}"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="18000" windowHeight="12375" xr2:uid="{29CCED42-C262-4F7A-883D-323D05EE8961}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="14">
   <si>
     <t>Perkins Coie LLP</t>
   </si>
@@ -426,101 +426,128 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D315F739-0980-42E7-9B5B-30989C7A5E5E}">
-  <dimension ref="A3:I27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72EAB417-7A06-48C2-B53A-FC17A552AE37}">
+  <dimension ref="A3:R134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" t="s">
-        <v>7</v>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>60606</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" t="s">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>60606</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5">
-        <v>60606</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -549,7 +576,7 @@
         <v>60606</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -578,7 +605,7 @@
         <v>60606</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -607,7 +634,7 @@
         <v>60606</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -636,7 +663,7 @@
         <v>60606</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -665,7 +692,7 @@
         <v>60606</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -694,7 +721,7 @@
         <v>60606</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -723,7 +750,7 @@
         <v>60606</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -752,7 +779,7 @@
         <v>60606</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -781,7 +808,36 @@
         <v>60606</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15">
+        <v>60606</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -789,13 +845,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E16" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F16" t="s">
         <v>5</v>
@@ -818,13 +874,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F17" t="s">
         <v>5</v>
@@ -836,35 +892,6 @@
         <v>7</v>
       </c>
       <c r="I17">
-        <v>60606</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" t="s">
-        <v>6</v>
-      </c>
-      <c r="H18" t="s">
-        <v>7</v>
-      </c>
-      <c r="I18">
         <v>60606</v>
       </c>
     </row>
@@ -1126,6 +1153,2877 @@
         <v>7</v>
       </c>
       <c r="I27">
+        <v>60606</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" t="s">
+        <v>6</v>
+      </c>
+      <c r="H28" t="s">
+        <v>7</v>
+      </c>
+      <c r="I28">
+        <v>60606</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" t="s">
+        <v>6</v>
+      </c>
+      <c r="H29" t="s">
+        <v>7</v>
+      </c>
+      <c r="I29">
+        <v>60606</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" t="s">
+        <v>5</v>
+      </c>
+      <c r="G30" t="s">
+        <v>6</v>
+      </c>
+      <c r="H30" t="s">
+        <v>7</v>
+      </c>
+      <c r="I30">
+        <v>60606</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" t="s">
+        <v>6</v>
+      </c>
+      <c r="H32" t="s">
+        <v>7</v>
+      </c>
+      <c r="I32">
+        <v>60606</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" t="s">
+        <v>6</v>
+      </c>
+      <c r="H33" t="s">
+        <v>7</v>
+      </c>
+      <c r="I33">
+        <v>60606</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" t="s">
+        <v>5</v>
+      </c>
+      <c r="G34" t="s">
+        <v>6</v>
+      </c>
+      <c r="H34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I34">
+        <v>60606</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H35" t="s">
+        <v>7</v>
+      </c>
+      <c r="I35">
+        <v>60606</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" t="s">
+        <v>5</v>
+      </c>
+      <c r="G36" t="s">
+        <v>6</v>
+      </c>
+      <c r="H36" t="s">
+        <v>7</v>
+      </c>
+      <c r="I36">
+        <v>60606</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" t="s">
+        <v>5</v>
+      </c>
+      <c r="G37" t="s">
+        <v>6</v>
+      </c>
+      <c r="H37" t="s">
+        <v>7</v>
+      </c>
+      <c r="I37">
+        <v>60606</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" t="s">
+        <v>4</v>
+      </c>
+      <c r="F38" t="s">
+        <v>5</v>
+      </c>
+      <c r="G38" t="s">
+        <v>6</v>
+      </c>
+      <c r="H38" t="s">
+        <v>7</v>
+      </c>
+      <c r="I38">
+        <v>60606</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" t="s">
+        <v>5</v>
+      </c>
+      <c r="G39" t="s">
+        <v>6</v>
+      </c>
+      <c r="H39" t="s">
+        <v>7</v>
+      </c>
+      <c r="I39">
+        <v>60606</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" t="s">
+        <v>5</v>
+      </c>
+      <c r="G40" t="s">
+        <v>6</v>
+      </c>
+      <c r="H40" t="s">
+        <v>7</v>
+      </c>
+      <c r="I40">
+        <v>60606</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" t="s">
+        <v>4</v>
+      </c>
+      <c r="F41" t="s">
+        <v>5</v>
+      </c>
+      <c r="G41" t="s">
+        <v>6</v>
+      </c>
+      <c r="H41" t="s">
+        <v>7</v>
+      </c>
+      <c r="I41">
+        <v>60606</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" t="s">
+        <v>6</v>
+      </c>
+      <c r="H42" t="s">
+        <v>7</v>
+      </c>
+      <c r="I42">
+        <v>60606</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" t="s">
+        <v>5</v>
+      </c>
+      <c r="G43" t="s">
+        <v>6</v>
+      </c>
+      <c r="H43" t="s">
+        <v>7</v>
+      </c>
+      <c r="I43">
+        <v>60606</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" t="s">
+        <v>6</v>
+      </c>
+      <c r="H45" t="s">
+        <v>7</v>
+      </c>
+      <c r="I45">
+        <v>60606</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" t="s">
+        <v>5</v>
+      </c>
+      <c r="G46" t="s">
+        <v>6</v>
+      </c>
+      <c r="H46" t="s">
+        <v>7</v>
+      </c>
+      <c r="I46">
+        <v>60606</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" t="s">
+        <v>5</v>
+      </c>
+      <c r="G47" t="s">
+        <v>6</v>
+      </c>
+      <c r="H47" t="s">
+        <v>7</v>
+      </c>
+      <c r="I47">
+        <v>60606</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" t="s">
+        <v>6</v>
+      </c>
+      <c r="H48" t="s">
+        <v>7</v>
+      </c>
+      <c r="I48">
+        <v>60606</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" t="s">
+        <v>6</v>
+      </c>
+      <c r="H49" t="s">
+        <v>7</v>
+      </c>
+      <c r="I49">
+        <v>60606</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G50" t="s">
+        <v>6</v>
+      </c>
+      <c r="H50" t="s">
+        <v>7</v>
+      </c>
+      <c r="I50">
+        <v>60606</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" t="s">
+        <v>4</v>
+      </c>
+      <c r="F51" t="s">
+        <v>5</v>
+      </c>
+      <c r="G51" t="s">
+        <v>6</v>
+      </c>
+      <c r="H51" t="s">
+        <v>7</v>
+      </c>
+      <c r="I51">
+        <v>60606</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" t="s">
+        <v>6</v>
+      </c>
+      <c r="H52" t="s">
+        <v>7</v>
+      </c>
+      <c r="I52">
+        <v>60606</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" t="s">
+        <v>5</v>
+      </c>
+      <c r="G53" t="s">
+        <v>6</v>
+      </c>
+      <c r="H53" t="s">
+        <v>7</v>
+      </c>
+      <c r="I53">
+        <v>60606</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" t="s">
+        <v>3</v>
+      </c>
+      <c r="E54" t="s">
+        <v>4</v>
+      </c>
+      <c r="F54" t="s">
+        <v>5</v>
+      </c>
+      <c r="G54" t="s">
+        <v>6</v>
+      </c>
+      <c r="H54" t="s">
+        <v>7</v>
+      </c>
+      <c r="I54">
+        <v>60606</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" t="s">
+        <v>5</v>
+      </c>
+      <c r="G55" t="s">
+        <v>6</v>
+      </c>
+      <c r="H55" t="s">
+        <v>7</v>
+      </c>
+      <c r="I55">
+        <v>60606</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" t="s">
+        <v>5</v>
+      </c>
+      <c r="G56" t="s">
+        <v>6</v>
+      </c>
+      <c r="H56" t="s">
+        <v>7</v>
+      </c>
+      <c r="I56">
+        <v>60606</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" t="s">
+        <v>5</v>
+      </c>
+      <c r="G58" t="s">
+        <v>6</v>
+      </c>
+      <c r="H58" t="s">
+        <v>7</v>
+      </c>
+      <c r="I58">
+        <v>60606</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" t="s">
+        <v>6</v>
+      </c>
+      <c r="H59" t="s">
+        <v>7</v>
+      </c>
+      <c r="I59">
+        <v>60606</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" t="s">
+        <v>5</v>
+      </c>
+      <c r="G60" t="s">
+        <v>6</v>
+      </c>
+      <c r="H60" t="s">
+        <v>7</v>
+      </c>
+      <c r="I60">
+        <v>60606</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61" t="s">
+        <v>3</v>
+      </c>
+      <c r="E61" t="s">
+        <v>4</v>
+      </c>
+      <c r="F61" t="s">
+        <v>5</v>
+      </c>
+      <c r="G61" t="s">
+        <v>6</v>
+      </c>
+      <c r="H61" t="s">
+        <v>7</v>
+      </c>
+      <c r="I61">
+        <v>60606</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" t="s">
+        <v>9</v>
+      </c>
+      <c r="E62" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" t="s">
+        <v>5</v>
+      </c>
+      <c r="G62" t="s">
+        <v>6</v>
+      </c>
+      <c r="H62" t="s">
+        <v>7</v>
+      </c>
+      <c r="I62">
+        <v>60606</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63" t="s">
+        <v>13</v>
+      </c>
+      <c r="F63" t="s">
+        <v>5</v>
+      </c>
+      <c r="G63" t="s">
+        <v>6</v>
+      </c>
+      <c r="H63" t="s">
+        <v>7</v>
+      </c>
+      <c r="I63">
+        <v>60606</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>2</v>
+      </c>
+      <c r="D64" t="s">
+        <v>3</v>
+      </c>
+      <c r="E64" t="s">
+        <v>4</v>
+      </c>
+      <c r="F64" t="s">
+        <v>5</v>
+      </c>
+      <c r="G64" t="s">
+        <v>6</v>
+      </c>
+      <c r="H64" t="s">
+        <v>7</v>
+      </c>
+      <c r="I64">
+        <v>60606</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" t="s">
+        <v>9</v>
+      </c>
+      <c r="E65" t="s">
+        <v>10</v>
+      </c>
+      <c r="F65" t="s">
+        <v>5</v>
+      </c>
+      <c r="G65" t="s">
+        <v>6</v>
+      </c>
+      <c r="H65" t="s">
+        <v>7</v>
+      </c>
+      <c r="I65">
+        <v>60606</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66" t="s">
+        <v>12</v>
+      </c>
+      <c r="E66" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" t="s">
+        <v>5</v>
+      </c>
+      <c r="G66" t="s">
+        <v>6</v>
+      </c>
+      <c r="H66" t="s">
+        <v>7</v>
+      </c>
+      <c r="I66">
+        <v>60606</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>2</v>
+      </c>
+      <c r="D67" t="s">
+        <v>3</v>
+      </c>
+      <c r="E67" t="s">
+        <v>4</v>
+      </c>
+      <c r="F67" t="s">
+        <v>5</v>
+      </c>
+      <c r="G67" t="s">
+        <v>6</v>
+      </c>
+      <c r="H67" t="s">
+        <v>7</v>
+      </c>
+      <c r="I67">
+        <v>60606</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" t="s">
+        <v>9</v>
+      </c>
+      <c r="E68" t="s">
+        <v>10</v>
+      </c>
+      <c r="F68" t="s">
+        <v>5</v>
+      </c>
+      <c r="G68" t="s">
+        <v>6</v>
+      </c>
+      <c r="H68" t="s">
+        <v>7</v>
+      </c>
+      <c r="I68">
+        <v>60606</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>11</v>
+      </c>
+      <c r="D69" t="s">
+        <v>12</v>
+      </c>
+      <c r="E69" t="s">
+        <v>13</v>
+      </c>
+      <c r="F69" t="s">
+        <v>5</v>
+      </c>
+      <c r="G69" t="s">
+        <v>6</v>
+      </c>
+      <c r="H69" t="s">
+        <v>7</v>
+      </c>
+      <c r="I69">
+        <v>60606</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>2</v>
+      </c>
+      <c r="D71" t="s">
+        <v>3</v>
+      </c>
+      <c r="E71" t="s">
+        <v>4</v>
+      </c>
+      <c r="F71" t="s">
+        <v>5</v>
+      </c>
+      <c r="G71" t="s">
+        <v>6</v>
+      </c>
+      <c r="H71" t="s">
+        <v>7</v>
+      </c>
+      <c r="I71">
+        <v>60606</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72" t="s">
+        <v>9</v>
+      </c>
+      <c r="E72" t="s">
+        <v>10</v>
+      </c>
+      <c r="F72" t="s">
+        <v>5</v>
+      </c>
+      <c r="G72" t="s">
+        <v>6</v>
+      </c>
+      <c r="H72" t="s">
+        <v>7</v>
+      </c>
+      <c r="I72">
+        <v>60606</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>11</v>
+      </c>
+      <c r="D73" t="s">
+        <v>12</v>
+      </c>
+      <c r="E73" t="s">
+        <v>13</v>
+      </c>
+      <c r="F73" t="s">
+        <v>5</v>
+      </c>
+      <c r="G73" t="s">
+        <v>6</v>
+      </c>
+      <c r="H73" t="s">
+        <v>7</v>
+      </c>
+      <c r="I73">
+        <v>60606</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>2</v>
+      </c>
+      <c r="D74" t="s">
+        <v>3</v>
+      </c>
+      <c r="E74" t="s">
+        <v>4</v>
+      </c>
+      <c r="F74" t="s">
+        <v>5</v>
+      </c>
+      <c r="G74" t="s">
+        <v>6</v>
+      </c>
+      <c r="H74" t="s">
+        <v>7</v>
+      </c>
+      <c r="I74">
+        <v>60606</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" t="s">
+        <v>9</v>
+      </c>
+      <c r="E75" t="s">
+        <v>10</v>
+      </c>
+      <c r="F75" t="s">
+        <v>5</v>
+      </c>
+      <c r="G75" t="s">
+        <v>6</v>
+      </c>
+      <c r="H75" t="s">
+        <v>7</v>
+      </c>
+      <c r="I75">
+        <v>60606</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>11</v>
+      </c>
+      <c r="D76" t="s">
+        <v>12</v>
+      </c>
+      <c r="E76" t="s">
+        <v>13</v>
+      </c>
+      <c r="F76" t="s">
+        <v>5</v>
+      </c>
+      <c r="G76" t="s">
+        <v>6</v>
+      </c>
+      <c r="H76" t="s">
+        <v>7</v>
+      </c>
+      <c r="I76">
+        <v>60606</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>2</v>
+      </c>
+      <c r="D77" t="s">
+        <v>3</v>
+      </c>
+      <c r="E77" t="s">
+        <v>4</v>
+      </c>
+      <c r="F77" t="s">
+        <v>5</v>
+      </c>
+      <c r="G77" t="s">
+        <v>6</v>
+      </c>
+      <c r="H77" t="s">
+        <v>7</v>
+      </c>
+      <c r="I77">
+        <v>60606</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78" t="s">
+        <v>9</v>
+      </c>
+      <c r="E78" t="s">
+        <v>10</v>
+      </c>
+      <c r="F78" t="s">
+        <v>5</v>
+      </c>
+      <c r="G78" t="s">
+        <v>6</v>
+      </c>
+      <c r="H78" t="s">
+        <v>7</v>
+      </c>
+      <c r="I78">
+        <v>60606</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>11</v>
+      </c>
+      <c r="D79" t="s">
+        <v>12</v>
+      </c>
+      <c r="E79" t="s">
+        <v>13</v>
+      </c>
+      <c r="F79" t="s">
+        <v>5</v>
+      </c>
+      <c r="G79" t="s">
+        <v>6</v>
+      </c>
+      <c r="H79" t="s">
+        <v>7</v>
+      </c>
+      <c r="I79">
+        <v>60606</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>2</v>
+      </c>
+      <c r="D80" t="s">
+        <v>3</v>
+      </c>
+      <c r="E80" t="s">
+        <v>4</v>
+      </c>
+      <c r="F80" t="s">
+        <v>5</v>
+      </c>
+      <c r="G80" t="s">
+        <v>6</v>
+      </c>
+      <c r="H80" t="s">
+        <v>7</v>
+      </c>
+      <c r="I80">
+        <v>60606</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81" t="s">
+        <v>9</v>
+      </c>
+      <c r="E81" t="s">
+        <v>10</v>
+      </c>
+      <c r="F81" t="s">
+        <v>5</v>
+      </c>
+      <c r="G81" t="s">
+        <v>6</v>
+      </c>
+      <c r="H81" t="s">
+        <v>7</v>
+      </c>
+      <c r="I81">
+        <v>60606</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>11</v>
+      </c>
+      <c r="D82" t="s">
+        <v>12</v>
+      </c>
+      <c r="E82" t="s">
+        <v>13</v>
+      </c>
+      <c r="F82" t="s">
+        <v>5</v>
+      </c>
+      <c r="G82" t="s">
+        <v>6</v>
+      </c>
+      <c r="H82" t="s">
+        <v>7</v>
+      </c>
+      <c r="I82">
+        <v>60606</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>2</v>
+      </c>
+      <c r="D84" t="s">
+        <v>3</v>
+      </c>
+      <c r="E84" t="s">
+        <v>4</v>
+      </c>
+      <c r="F84" t="s">
+        <v>5</v>
+      </c>
+      <c r="G84" t="s">
+        <v>6</v>
+      </c>
+      <c r="H84" t="s">
+        <v>7</v>
+      </c>
+      <c r="I84">
+        <v>60606</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1</v>
+      </c>
+      <c r="C85" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85" t="s">
+        <v>9</v>
+      </c>
+      <c r="E85" t="s">
+        <v>10</v>
+      </c>
+      <c r="F85" t="s">
+        <v>5</v>
+      </c>
+      <c r="G85" t="s">
+        <v>6</v>
+      </c>
+      <c r="H85" t="s">
+        <v>7</v>
+      </c>
+      <c r="I85">
+        <v>60606</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1</v>
+      </c>
+      <c r="C86" t="s">
+        <v>11</v>
+      </c>
+      <c r="D86" t="s">
+        <v>12</v>
+      </c>
+      <c r="E86" t="s">
+        <v>13</v>
+      </c>
+      <c r="F86" t="s">
+        <v>5</v>
+      </c>
+      <c r="G86" t="s">
+        <v>6</v>
+      </c>
+      <c r="H86" t="s">
+        <v>7</v>
+      </c>
+      <c r="I86">
+        <v>60606</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1</v>
+      </c>
+      <c r="C87" t="s">
+        <v>2</v>
+      </c>
+      <c r="D87" t="s">
+        <v>3</v>
+      </c>
+      <c r="E87" t="s">
+        <v>4</v>
+      </c>
+      <c r="F87" t="s">
+        <v>5</v>
+      </c>
+      <c r="G87" t="s">
+        <v>6</v>
+      </c>
+      <c r="H87" t="s">
+        <v>7</v>
+      </c>
+      <c r="I87">
+        <v>60606</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1</v>
+      </c>
+      <c r="C88" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88" t="s">
+        <v>9</v>
+      </c>
+      <c r="E88" t="s">
+        <v>10</v>
+      </c>
+      <c r="F88" t="s">
+        <v>5</v>
+      </c>
+      <c r="G88" t="s">
+        <v>6</v>
+      </c>
+      <c r="H88" t="s">
+        <v>7</v>
+      </c>
+      <c r="I88">
+        <v>60606</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1</v>
+      </c>
+      <c r="C89" t="s">
+        <v>11</v>
+      </c>
+      <c r="D89" t="s">
+        <v>12</v>
+      </c>
+      <c r="E89" t="s">
+        <v>13</v>
+      </c>
+      <c r="F89" t="s">
+        <v>5</v>
+      </c>
+      <c r="G89" t="s">
+        <v>6</v>
+      </c>
+      <c r="H89" t="s">
+        <v>7</v>
+      </c>
+      <c r="I89">
+        <v>60606</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1</v>
+      </c>
+      <c r="C90" t="s">
+        <v>2</v>
+      </c>
+      <c r="D90" t="s">
+        <v>3</v>
+      </c>
+      <c r="E90" t="s">
+        <v>4</v>
+      </c>
+      <c r="F90" t="s">
+        <v>5</v>
+      </c>
+      <c r="G90" t="s">
+        <v>6</v>
+      </c>
+      <c r="H90" t="s">
+        <v>7</v>
+      </c>
+      <c r="I90">
+        <v>60606</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>8</v>
+      </c>
+      <c r="D91" t="s">
+        <v>9</v>
+      </c>
+      <c r="E91" t="s">
+        <v>10</v>
+      </c>
+      <c r="F91" t="s">
+        <v>5</v>
+      </c>
+      <c r="G91" t="s">
+        <v>6</v>
+      </c>
+      <c r="H91" t="s">
+        <v>7</v>
+      </c>
+      <c r="I91">
+        <v>60606</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1</v>
+      </c>
+      <c r="C92" t="s">
+        <v>11</v>
+      </c>
+      <c r="D92" t="s">
+        <v>12</v>
+      </c>
+      <c r="E92" t="s">
+        <v>13</v>
+      </c>
+      <c r="F92" t="s">
+        <v>5</v>
+      </c>
+      <c r="G92" t="s">
+        <v>6</v>
+      </c>
+      <c r="H92" t="s">
+        <v>7</v>
+      </c>
+      <c r="I92">
+        <v>60606</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1</v>
+      </c>
+      <c r="C93" t="s">
+        <v>2</v>
+      </c>
+      <c r="D93" t="s">
+        <v>3</v>
+      </c>
+      <c r="E93" t="s">
+        <v>4</v>
+      </c>
+      <c r="F93" t="s">
+        <v>5</v>
+      </c>
+      <c r="G93" t="s">
+        <v>6</v>
+      </c>
+      <c r="H93" t="s">
+        <v>7</v>
+      </c>
+      <c r="I93">
+        <v>60606</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1</v>
+      </c>
+      <c r="C94" t="s">
+        <v>8</v>
+      </c>
+      <c r="D94" t="s">
+        <v>9</v>
+      </c>
+      <c r="E94" t="s">
+        <v>10</v>
+      </c>
+      <c r="F94" t="s">
+        <v>5</v>
+      </c>
+      <c r="G94" t="s">
+        <v>6</v>
+      </c>
+      <c r="H94" t="s">
+        <v>7</v>
+      </c>
+      <c r="I94">
+        <v>60606</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1</v>
+      </c>
+      <c r="C95" t="s">
+        <v>11</v>
+      </c>
+      <c r="D95" t="s">
+        <v>12</v>
+      </c>
+      <c r="E95" t="s">
+        <v>13</v>
+      </c>
+      <c r="F95" t="s">
+        <v>5</v>
+      </c>
+      <c r="G95" t="s">
+        <v>6</v>
+      </c>
+      <c r="H95" t="s">
+        <v>7</v>
+      </c>
+      <c r="I95">
+        <v>60606</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>0</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1</v>
+      </c>
+      <c r="C97" t="s">
+        <v>2</v>
+      </c>
+      <c r="D97" t="s">
+        <v>3</v>
+      </c>
+      <c r="E97" t="s">
+        <v>4</v>
+      </c>
+      <c r="F97" t="s">
+        <v>5</v>
+      </c>
+      <c r="G97" t="s">
+        <v>6</v>
+      </c>
+      <c r="H97" t="s">
+        <v>7</v>
+      </c>
+      <c r="I97">
+        <v>60606</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1</v>
+      </c>
+      <c r="C98" t="s">
+        <v>8</v>
+      </c>
+      <c r="D98" t="s">
+        <v>9</v>
+      </c>
+      <c r="E98" t="s">
+        <v>10</v>
+      </c>
+      <c r="F98" t="s">
+        <v>5</v>
+      </c>
+      <c r="G98" t="s">
+        <v>6</v>
+      </c>
+      <c r="H98" t="s">
+        <v>7</v>
+      </c>
+      <c r="I98">
+        <v>60606</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>0</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1</v>
+      </c>
+      <c r="C99" t="s">
+        <v>11</v>
+      </c>
+      <c r="D99" t="s">
+        <v>12</v>
+      </c>
+      <c r="E99" t="s">
+        <v>13</v>
+      </c>
+      <c r="F99" t="s">
+        <v>5</v>
+      </c>
+      <c r="G99" t="s">
+        <v>6</v>
+      </c>
+      <c r="H99" t="s">
+        <v>7</v>
+      </c>
+      <c r="I99">
+        <v>60606</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1</v>
+      </c>
+      <c r="C100" t="s">
+        <v>2</v>
+      </c>
+      <c r="D100" t="s">
+        <v>3</v>
+      </c>
+      <c r="E100" t="s">
+        <v>4</v>
+      </c>
+      <c r="F100" t="s">
+        <v>5</v>
+      </c>
+      <c r="G100" t="s">
+        <v>6</v>
+      </c>
+      <c r="H100" t="s">
+        <v>7</v>
+      </c>
+      <c r="I100">
+        <v>60606</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1</v>
+      </c>
+      <c r="C101" t="s">
+        <v>8</v>
+      </c>
+      <c r="D101" t="s">
+        <v>9</v>
+      </c>
+      <c r="E101" t="s">
+        <v>10</v>
+      </c>
+      <c r="F101" t="s">
+        <v>5</v>
+      </c>
+      <c r="G101" t="s">
+        <v>6</v>
+      </c>
+      <c r="H101" t="s">
+        <v>7</v>
+      </c>
+      <c r="I101">
+        <v>60606</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>0</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1</v>
+      </c>
+      <c r="C102" t="s">
+        <v>11</v>
+      </c>
+      <c r="D102" t="s">
+        <v>12</v>
+      </c>
+      <c r="E102" t="s">
+        <v>13</v>
+      </c>
+      <c r="F102" t="s">
+        <v>5</v>
+      </c>
+      <c r="G102" t="s">
+        <v>6</v>
+      </c>
+      <c r="H102" t="s">
+        <v>7</v>
+      </c>
+      <c r="I102">
+        <v>60606</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1</v>
+      </c>
+      <c r="C103" t="s">
+        <v>2</v>
+      </c>
+      <c r="D103" t="s">
+        <v>3</v>
+      </c>
+      <c r="E103" t="s">
+        <v>4</v>
+      </c>
+      <c r="F103" t="s">
+        <v>5</v>
+      </c>
+      <c r="G103" t="s">
+        <v>6</v>
+      </c>
+      <c r="H103" t="s">
+        <v>7</v>
+      </c>
+      <c r="I103">
+        <v>60606</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>0</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1</v>
+      </c>
+      <c r="C104" t="s">
+        <v>8</v>
+      </c>
+      <c r="D104" t="s">
+        <v>9</v>
+      </c>
+      <c r="E104" t="s">
+        <v>10</v>
+      </c>
+      <c r="F104" t="s">
+        <v>5</v>
+      </c>
+      <c r="G104" t="s">
+        <v>6</v>
+      </c>
+      <c r="H104" t="s">
+        <v>7</v>
+      </c>
+      <c r="I104">
+        <v>60606</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>0</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1</v>
+      </c>
+      <c r="C105" t="s">
+        <v>11</v>
+      </c>
+      <c r="D105" t="s">
+        <v>12</v>
+      </c>
+      <c r="E105" t="s">
+        <v>13</v>
+      </c>
+      <c r="F105" t="s">
+        <v>5</v>
+      </c>
+      <c r="G105" t="s">
+        <v>6</v>
+      </c>
+      <c r="H105" t="s">
+        <v>7</v>
+      </c>
+      <c r="I105">
+        <v>60606</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>0</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1</v>
+      </c>
+      <c r="C106" t="s">
+        <v>2</v>
+      </c>
+      <c r="D106" t="s">
+        <v>3</v>
+      </c>
+      <c r="E106" t="s">
+        <v>4</v>
+      </c>
+      <c r="F106" t="s">
+        <v>5</v>
+      </c>
+      <c r="G106" t="s">
+        <v>6</v>
+      </c>
+      <c r="H106" t="s">
+        <v>7</v>
+      </c>
+      <c r="I106">
+        <v>60606</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>0</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1</v>
+      </c>
+      <c r="C107" t="s">
+        <v>8</v>
+      </c>
+      <c r="D107" t="s">
+        <v>9</v>
+      </c>
+      <c r="E107" t="s">
+        <v>10</v>
+      </c>
+      <c r="F107" t="s">
+        <v>5</v>
+      </c>
+      <c r="G107" t="s">
+        <v>6</v>
+      </c>
+      <c r="H107" t="s">
+        <v>7</v>
+      </c>
+      <c r="I107">
+        <v>60606</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>0</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1</v>
+      </c>
+      <c r="C108" t="s">
+        <v>11</v>
+      </c>
+      <c r="D108" t="s">
+        <v>12</v>
+      </c>
+      <c r="E108" t="s">
+        <v>13</v>
+      </c>
+      <c r="F108" t="s">
+        <v>5</v>
+      </c>
+      <c r="G108" t="s">
+        <v>6</v>
+      </c>
+      <c r="H108" t="s">
+        <v>7</v>
+      </c>
+      <c r="I108">
+        <v>60606</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>0</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1</v>
+      </c>
+      <c r="C110" t="s">
+        <v>2</v>
+      </c>
+      <c r="D110" t="s">
+        <v>3</v>
+      </c>
+      <c r="E110" t="s">
+        <v>4</v>
+      </c>
+      <c r="F110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G110" t="s">
+        <v>6</v>
+      </c>
+      <c r="H110" t="s">
+        <v>7</v>
+      </c>
+      <c r="I110">
+        <v>60606</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1</v>
+      </c>
+      <c r="C111" t="s">
+        <v>8</v>
+      </c>
+      <c r="D111" t="s">
+        <v>9</v>
+      </c>
+      <c r="E111" t="s">
+        <v>10</v>
+      </c>
+      <c r="F111" t="s">
+        <v>5</v>
+      </c>
+      <c r="G111" t="s">
+        <v>6</v>
+      </c>
+      <c r="H111" t="s">
+        <v>7</v>
+      </c>
+      <c r="I111">
+        <v>60606</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>0</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1</v>
+      </c>
+      <c r="C112" t="s">
+        <v>11</v>
+      </c>
+      <c r="D112" t="s">
+        <v>12</v>
+      </c>
+      <c r="E112" t="s">
+        <v>13</v>
+      </c>
+      <c r="F112" t="s">
+        <v>5</v>
+      </c>
+      <c r="G112" t="s">
+        <v>6</v>
+      </c>
+      <c r="H112" t="s">
+        <v>7</v>
+      </c>
+      <c r="I112">
+        <v>60606</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>0</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1</v>
+      </c>
+      <c r="C113" t="s">
+        <v>2</v>
+      </c>
+      <c r="D113" t="s">
+        <v>3</v>
+      </c>
+      <c r="E113" t="s">
+        <v>4</v>
+      </c>
+      <c r="F113" t="s">
+        <v>5</v>
+      </c>
+      <c r="G113" t="s">
+        <v>6</v>
+      </c>
+      <c r="H113" t="s">
+        <v>7</v>
+      </c>
+      <c r="I113">
+        <v>60606</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>0</v>
+      </c>
+      <c r="B114" t="s">
+        <v>1</v>
+      </c>
+      <c r="C114" t="s">
+        <v>8</v>
+      </c>
+      <c r="D114" t="s">
+        <v>9</v>
+      </c>
+      <c r="E114" t="s">
+        <v>10</v>
+      </c>
+      <c r="F114" t="s">
+        <v>5</v>
+      </c>
+      <c r="G114" t="s">
+        <v>6</v>
+      </c>
+      <c r="H114" t="s">
+        <v>7</v>
+      </c>
+      <c r="I114">
+        <v>60606</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>0</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1</v>
+      </c>
+      <c r="C115" t="s">
+        <v>11</v>
+      </c>
+      <c r="D115" t="s">
+        <v>12</v>
+      </c>
+      <c r="E115" t="s">
+        <v>13</v>
+      </c>
+      <c r="F115" t="s">
+        <v>5</v>
+      </c>
+      <c r="G115" t="s">
+        <v>6</v>
+      </c>
+      <c r="H115" t="s">
+        <v>7</v>
+      </c>
+      <c r="I115">
+        <v>60606</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>0</v>
+      </c>
+      <c r="B116" t="s">
+        <v>1</v>
+      </c>
+      <c r="C116" t="s">
+        <v>2</v>
+      </c>
+      <c r="D116" t="s">
+        <v>3</v>
+      </c>
+      <c r="E116" t="s">
+        <v>4</v>
+      </c>
+      <c r="F116" t="s">
+        <v>5</v>
+      </c>
+      <c r="G116" t="s">
+        <v>6</v>
+      </c>
+      <c r="H116" t="s">
+        <v>7</v>
+      </c>
+      <c r="I116">
+        <v>60606</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>0</v>
+      </c>
+      <c r="B117" t="s">
+        <v>1</v>
+      </c>
+      <c r="C117" t="s">
+        <v>8</v>
+      </c>
+      <c r="D117" t="s">
+        <v>9</v>
+      </c>
+      <c r="E117" t="s">
+        <v>10</v>
+      </c>
+      <c r="F117" t="s">
+        <v>5</v>
+      </c>
+      <c r="G117" t="s">
+        <v>6</v>
+      </c>
+      <c r="H117" t="s">
+        <v>7</v>
+      </c>
+      <c r="I117">
+        <v>60606</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>0</v>
+      </c>
+      <c r="B118" t="s">
+        <v>1</v>
+      </c>
+      <c r="C118" t="s">
+        <v>11</v>
+      </c>
+      <c r="D118" t="s">
+        <v>12</v>
+      </c>
+      <c r="E118" t="s">
+        <v>13</v>
+      </c>
+      <c r="F118" t="s">
+        <v>5</v>
+      </c>
+      <c r="G118" t="s">
+        <v>6</v>
+      </c>
+      <c r="H118" t="s">
+        <v>7</v>
+      </c>
+      <c r="I118">
+        <v>60606</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>0</v>
+      </c>
+      <c r="B119" t="s">
+        <v>1</v>
+      </c>
+      <c r="C119" t="s">
+        <v>2</v>
+      </c>
+      <c r="D119" t="s">
+        <v>3</v>
+      </c>
+      <c r="E119" t="s">
+        <v>4</v>
+      </c>
+      <c r="F119" t="s">
+        <v>5</v>
+      </c>
+      <c r="G119" t="s">
+        <v>6</v>
+      </c>
+      <c r="H119" t="s">
+        <v>7</v>
+      </c>
+      <c r="I119">
+        <v>60606</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>0</v>
+      </c>
+      <c r="B120" t="s">
+        <v>1</v>
+      </c>
+      <c r="C120" t="s">
+        <v>8</v>
+      </c>
+      <c r="D120" t="s">
+        <v>9</v>
+      </c>
+      <c r="E120" t="s">
+        <v>10</v>
+      </c>
+      <c r="F120" t="s">
+        <v>5</v>
+      </c>
+      <c r="G120" t="s">
+        <v>6</v>
+      </c>
+      <c r="H120" t="s">
+        <v>7</v>
+      </c>
+      <c r="I120">
+        <v>60606</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>0</v>
+      </c>
+      <c r="B121" t="s">
+        <v>1</v>
+      </c>
+      <c r="C121" t="s">
+        <v>11</v>
+      </c>
+      <c r="D121" t="s">
+        <v>12</v>
+      </c>
+      <c r="E121" t="s">
+        <v>13</v>
+      </c>
+      <c r="F121" t="s">
+        <v>5</v>
+      </c>
+      <c r="G121" t="s">
+        <v>6</v>
+      </c>
+      <c r="H121" t="s">
+        <v>7</v>
+      </c>
+      <c r="I121">
+        <v>60606</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>0</v>
+      </c>
+      <c r="B123" t="s">
+        <v>1</v>
+      </c>
+      <c r="C123" t="s">
+        <v>2</v>
+      </c>
+      <c r="D123" t="s">
+        <v>3</v>
+      </c>
+      <c r="E123" t="s">
+        <v>4</v>
+      </c>
+      <c r="F123" t="s">
+        <v>5</v>
+      </c>
+      <c r="G123" t="s">
+        <v>6</v>
+      </c>
+      <c r="H123" t="s">
+        <v>7</v>
+      </c>
+      <c r="I123">
+        <v>60606</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>0</v>
+      </c>
+      <c r="B124" t="s">
+        <v>1</v>
+      </c>
+      <c r="C124" t="s">
+        <v>8</v>
+      </c>
+      <c r="D124" t="s">
+        <v>9</v>
+      </c>
+      <c r="E124" t="s">
+        <v>10</v>
+      </c>
+      <c r="F124" t="s">
+        <v>5</v>
+      </c>
+      <c r="G124" t="s">
+        <v>6</v>
+      </c>
+      <c r="H124" t="s">
+        <v>7</v>
+      </c>
+      <c r="I124">
+        <v>60606</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>0</v>
+      </c>
+      <c r="B125" t="s">
+        <v>1</v>
+      </c>
+      <c r="C125" t="s">
+        <v>11</v>
+      </c>
+      <c r="D125" t="s">
+        <v>12</v>
+      </c>
+      <c r="E125" t="s">
+        <v>13</v>
+      </c>
+      <c r="F125" t="s">
+        <v>5</v>
+      </c>
+      <c r="G125" t="s">
+        <v>6</v>
+      </c>
+      <c r="H125" t="s">
+        <v>7</v>
+      </c>
+      <c r="I125">
+        <v>60606</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>0</v>
+      </c>
+      <c r="B126" t="s">
+        <v>1</v>
+      </c>
+      <c r="C126" t="s">
+        <v>2</v>
+      </c>
+      <c r="D126" t="s">
+        <v>3</v>
+      </c>
+      <c r="E126" t="s">
+        <v>4</v>
+      </c>
+      <c r="F126" t="s">
+        <v>5</v>
+      </c>
+      <c r="G126" t="s">
+        <v>6</v>
+      </c>
+      <c r="H126" t="s">
+        <v>7</v>
+      </c>
+      <c r="I126">
+        <v>60606</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>0</v>
+      </c>
+      <c r="B127" t="s">
+        <v>1</v>
+      </c>
+      <c r="C127" t="s">
+        <v>8</v>
+      </c>
+      <c r="D127" t="s">
+        <v>9</v>
+      </c>
+      <c r="E127" t="s">
+        <v>10</v>
+      </c>
+      <c r="F127" t="s">
+        <v>5</v>
+      </c>
+      <c r="G127" t="s">
+        <v>6</v>
+      </c>
+      <c r="H127" t="s">
+        <v>7</v>
+      </c>
+      <c r="I127">
+        <v>60606</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>0</v>
+      </c>
+      <c r="B128" t="s">
+        <v>1</v>
+      </c>
+      <c r="C128" t="s">
+        <v>11</v>
+      </c>
+      <c r="D128" t="s">
+        <v>12</v>
+      </c>
+      <c r="E128" t="s">
+        <v>13</v>
+      </c>
+      <c r="F128" t="s">
+        <v>5</v>
+      </c>
+      <c r="G128" t="s">
+        <v>6</v>
+      </c>
+      <c r="H128" t="s">
+        <v>7</v>
+      </c>
+      <c r="I128">
+        <v>60606</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>0</v>
+      </c>
+      <c r="B129" t="s">
+        <v>1</v>
+      </c>
+      <c r="C129" t="s">
+        <v>2</v>
+      </c>
+      <c r="D129" t="s">
+        <v>3</v>
+      </c>
+      <c r="E129" t="s">
+        <v>4</v>
+      </c>
+      <c r="F129" t="s">
+        <v>5</v>
+      </c>
+      <c r="G129" t="s">
+        <v>6</v>
+      </c>
+      <c r="H129" t="s">
+        <v>7</v>
+      </c>
+      <c r="I129">
+        <v>60606</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>0</v>
+      </c>
+      <c r="B130" t="s">
+        <v>1</v>
+      </c>
+      <c r="C130" t="s">
+        <v>8</v>
+      </c>
+      <c r="D130" t="s">
+        <v>9</v>
+      </c>
+      <c r="E130" t="s">
+        <v>10</v>
+      </c>
+      <c r="F130" t="s">
+        <v>5</v>
+      </c>
+      <c r="G130" t="s">
+        <v>6</v>
+      </c>
+      <c r="H130" t="s">
+        <v>7</v>
+      </c>
+      <c r="I130">
+        <v>60606</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>0</v>
+      </c>
+      <c r="B131" t="s">
+        <v>1</v>
+      </c>
+      <c r="C131" t="s">
+        <v>11</v>
+      </c>
+      <c r="D131" t="s">
+        <v>12</v>
+      </c>
+      <c r="E131" t="s">
+        <v>13</v>
+      </c>
+      <c r="F131" t="s">
+        <v>5</v>
+      </c>
+      <c r="G131" t="s">
+        <v>6</v>
+      </c>
+      <c r="H131" t="s">
+        <v>7</v>
+      </c>
+      <c r="I131">
+        <v>60606</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>0</v>
+      </c>
+      <c r="B132" t="s">
+        <v>1</v>
+      </c>
+      <c r="C132" t="s">
+        <v>2</v>
+      </c>
+      <c r="D132" t="s">
+        <v>3</v>
+      </c>
+      <c r="E132" t="s">
+        <v>4</v>
+      </c>
+      <c r="F132" t="s">
+        <v>5</v>
+      </c>
+      <c r="G132" t="s">
+        <v>6</v>
+      </c>
+      <c r="H132" t="s">
+        <v>7</v>
+      </c>
+      <c r="I132">
+        <v>60606</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>0</v>
+      </c>
+      <c r="B133" t="s">
+        <v>1</v>
+      </c>
+      <c r="C133" t="s">
+        <v>8</v>
+      </c>
+      <c r="D133" t="s">
+        <v>9</v>
+      </c>
+      <c r="E133" t="s">
+        <v>10</v>
+      </c>
+      <c r="F133" t="s">
+        <v>5</v>
+      </c>
+      <c r="G133" t="s">
+        <v>6</v>
+      </c>
+      <c r="H133" t="s">
+        <v>7</v>
+      </c>
+      <c r="I133">
+        <v>60606</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>0</v>
+      </c>
+      <c r="B134" t="s">
+        <v>1</v>
+      </c>
+      <c r="C134" t="s">
+        <v>11</v>
+      </c>
+      <c r="D134" t="s">
+        <v>12</v>
+      </c>
+      <c r="E134" t="s">
+        <v>13</v>
+      </c>
+      <c r="F134" t="s">
+        <v>5</v>
+      </c>
+      <c r="G134" t="s">
+        <v>6</v>
+      </c>
+      <c r="H134" t="s">
+        <v>7</v>
+      </c>
+      <c r="I134">
         <v>60606</v>
       </c>
     </row>

--- a/USING VBScript/new_bot/_UiZbG1b3qQMYU/data.xlsx
+++ b/USING VBScript/new_bot/_UiZbG1b3qQMYU/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\x\Documents\GitHub\EXCEL_AUTOMATION\USING VBScript\new_bot\_UiZbG1b3qQMYU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70682FE-2A37-4513-B42C-FB0A2F3E03DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD91183-2852-4794-A9A1-55740D4D4D52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="15" windowWidth="18000" windowHeight="12375" xr2:uid="{29CCED42-C262-4F7A-883D-323D05EE8961}"/>
   </bookViews>
@@ -427,7 +427,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72EAB417-7A06-48C2-B53A-FC17A552AE37}">
-  <dimension ref="A3:R134"/>
+  <dimension ref="A3:R138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="R12" sqref="R12"/>
@@ -4027,6 +4027,52 @@
         <v>60606</v>
       </c>
     </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>11</v>
+      </c>
+      <c r="B136">
+        <v>11</v>
+      </c>
+      <c r="C136">
+        <v>11</v>
+      </c>
+      <c r="D136">
+        <v>11</v>
+      </c>
+      <c r="E136">
+        <v>11</v>
+      </c>
+      <c r="F136">
+        <v>11</v>
+      </c>
+      <c r="G136">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>11</v>
+      </c>
+      <c r="B138">
+        <v>11</v>
+      </c>
+      <c r="C138">
+        <v>11</v>
+      </c>
+      <c r="D138">
+        <v>11</v>
+      </c>
+      <c r="E138">
+        <v>11</v>
+      </c>
+      <c r="F138">
+        <v>11</v>
+      </c>
+      <c r="G138">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
